--- a/assets/data/attractions.xlsx
+++ b/assets/data/attractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dydy1\studioprojects\ducktourguide\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D323EE8-04B9-42DE-B730-620139C9F115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CAB34-4D94-42D7-9BE7-75E1D1266B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,12 +173,201 @@
     <t>Address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>旗津彩虹教堂</t>
+  </si>
+  <si>
+    <t>805高雄市旗津區旗津三路990號</t>
+  </si>
+  <si>
+    <t>以幾何的建築形態為主要設計元素，搭配不同時間光影變化產生立體的空間感，彩虹色系則代表幸福意涵，為新人帶來好運祝福；配合真實的海景讓建築體像是飄浮在海中央，塑造還天一色的婚紗美境，讓旗津遊客不必遠渡重洋也能拍出浪漫的異國風情！</t>
+  </si>
+  <si>
+    <t>壽山動物園</t>
+  </si>
+  <si>
+    <t>80444高雄市鼓山區萬壽路350號</t>
+  </si>
+  <si>
+    <t>壽山動物園是南部最大的公立動物園，為高雄市觀光局轄管，是台灣三座市立動物園之一，規模僅次於臺北市立動物園，2022年改善了動物的家與戶外活動空間，並設置動物友善的空中觀察廊道，讓高雄居民與遊客能以不同角度、低干擾的情況下，近距離觀察可愛動物的日常生活，是個適合親子休閒、戶外教學、生態科普的教育場所。</t>
+  </si>
+  <si>
+    <t>美濃民俗村</t>
+  </si>
+  <si>
+    <t>843高雄市美濃區中山路二段421巷80號</t>
+  </si>
+  <si>
+    <t>美濃是高雄最大的客家聚落，屬於高屏溪流域客家民防組織「六堆」中的右堆，是南台灣極富客家文化特色且民風淳樸的小城，不同於隔壁的人口稠密的旗山，慢步調的美濃更保有早年的閒適感。美濃民俗村完整保留客家文化，結合地方上各產業精英，介紹美濃的人文地理、生活習俗及豐富的旅遊內容。</t>
+  </si>
+  <si>
+    <t>寶來花賞溫泉公園</t>
+  </si>
+  <si>
+    <t>844高雄市六龜區寶來二巷</t>
+  </si>
+  <si>
+    <t>寶來花賞溫泉公園佔地5.4公頃，被群山環繞，栽種1370株的花旗木、河津櫻、藍花楹、美人樹等開花喬木，全年都會有繽紛的花海，春夏秋冬各有綻放主角，每年3、4月花旗木海盛開，總會吸引許多遊客前來，在繁花盛開中體驗手、足湯的愜意風情。</t>
+  </si>
+  <si>
+    <t>永安濕地</t>
+  </si>
+  <si>
+    <t>828高雄市永安區</t>
+  </si>
+  <si>
+    <t>前身為烏樹林鹽場，開闢於1908年，曾是南台灣重要的製鹽基地，見證了台灣鹽業的興衰歷程。日治時期，這片鹽田蓬勃發展，1952年國民政府接手後，將其改組為「台灣製鹽總廠」，持續發展製鹽產業。然而，隨著1970年代產業轉型，鹽業逐漸沒落，1985年台電收購此地，計畫作為興達電廠的擴建用地，昔日繁榮的鹽田正式走入歷史。</t>
+  </si>
+  <si>
+    <t>興達漁港</t>
+  </si>
+  <si>
+    <t>852高雄市茄萣區</t>
+  </si>
+  <si>
+    <t>緊臨情人碼頭，最負盛名的是有海上黑金之稱的烏魚，每年冬至前後的烏魚季，烏魚子、魚乾、魚膘及烏魚胗為茄萣帶來巨大的經濟利益，興達港不僅是臺灣最大的烏魚子產地，也因近海漁業及養殖漁業發達，成為生鮮海產的集中地。近年經高雄市政府重新規劃擴建，原本傳統的漁村結合在地特色與觀光休閒文化後，轉化成新興的現代漁港，是全臺規模最大最現代化的漁港。</t>
+  </si>
+  <si>
+    <t>高雄市立圖書館總館</t>
+  </si>
+  <si>
+    <t>806高雄市前鎮區新光路61號</t>
+  </si>
+  <si>
+    <t>高雄市立圖書館總館位於新光路，是一棟結合植物、環保與文化的建築物。這座八層樓高的新總館外方內圓，樓板面積高達37233平方公尺，以樹為建築概念、書為主角，建構出館中有樹、樹中有館開放寬敞的友善空間。</t>
+  </si>
+  <si>
+    <t>高雄展覽館</t>
+  </si>
+  <si>
+    <t>806高雄市前鎮區成功二路39</t>
+  </si>
+  <si>
+    <t>高雄展覽館座落於亞灣區樞紐，是臺灣第一座多功能臨港會展中心，鄰近高雄港及高雄捷運三多商圈站，距離小港機場僅約15分鐘車程，交通十分便捷，是高雄市擁有國際級景觀及專業的展場。智慧節能的建築設計、波浪造型輕量化鋼骨結構，展現海洋城市意象與磅礡氣勢！展覽館建築為大跨距鋼骨結構，外覆以一萬多片的鋁合金帷幕，能調節自然採光與空氣，波浪型的屋頂呼應港都海洋城市的造景。</t>
+  </si>
+  <si>
+    <t>鳳儀書院</t>
+  </si>
+  <si>
+    <t>830高雄市鳳山區鳳明街62號</t>
+  </si>
+  <si>
+    <t>位於城隍廟旁的鳳儀書院興建於1814年，於民國74年列為三級古蹟。由鳳山候選訓導歲貢生張廷欽所建，當年有屋舍37間，院內原祀文昌、奎昌、倉聖神位，並有桌椅，是古時生員求學歲試的場所，建築細節十分講究，也是現存全臺規模最大書院，書院門廳前的照壁和正門兩旁的石鼓，均顯示了鳳儀書院當初建築設計時的考究。在民國98年規畫整修後，的園區增設許多Q版塑像，並規畫2個展覽空間，提供書院歷史沿革與文物擺設等詳細介紹，寓教於樂。</t>
+  </si>
+  <si>
+    <t>高雄市文化中心</t>
+  </si>
+  <si>
+    <t>802高雄市苓雅區五福一路67號</t>
+  </si>
+  <si>
+    <t>文化中心不僅提供高雄市民休閒遊憩的場所，更豐富了港都市民的藝術視野。提供至德堂、及至善廳等兩個演藝廳、7個展覽館及圖書館等藝文空間，環繞於文化中心周邊，充滿人文氣息的「市民藝術大道」則塑造出獨一無二的空間，人行道上的藝術座椅、鋼雕藝術品與馬賽克地面拼畫等藝術裝置更成為「城市美學」的範本。</t>
+  </si>
+  <si>
+    <t>高雄市立美術館</t>
+  </si>
+  <si>
+    <t>80460高雄市鼓山區美術館路80號</t>
+  </si>
+  <si>
+    <t>高雄市立美術館成立於1994年，座落於高雄市都會西北位置之內惟埤文化園區內，為原「內惟埤」濕地之區域範圍。區域北端的龜山、半屏山，與西側南北向的壽山，匯聚了流經區內的愛河，共同形成區域周邊山水環抱的景觀。</t>
+  </si>
+  <si>
+    <t>高雄巨蛋</t>
+  </si>
+  <si>
+    <t>813高雄市左營區博愛二路757號</t>
+  </si>
+  <si>
+    <t>體育館基地面積17,000餘坪，館內挑高42公尺，6層樓高的開放空間，共有15000個座位，移動式自動縮放座椅與大型活動吊具等設施、快速變更空間使用特性，可做為大型且多目標的活動使用，各項設備完善、符合奧運標準。高雄巨蛋不但具有體育賽事的功能，同時也為各項商業演出、大型會議、商展、教學等等提供優質場所，是高雄市最具現代化規模、設備最完善的多功能體育園區。</t>
+  </si>
+  <si>
+    <t>自來水公園</t>
+  </si>
+  <si>
+    <t>802高雄市苓雅區五福一路81號</t>
+  </si>
+  <si>
+    <t>原為1960年興建但已棄置停用的大型蓄水塔及自來水源輸配管線。由於其歷史價值，市府將輸配管線都予以保留，並將蓄水量達3800公噸的水塔外觀漆上七彩顏色，夜晚輔以燈光造景，成為高雄市區的美麗地標。園區內的有七處景觀藝術品，地面則以弧面意象鋪設，並以光纖光帶串連玻璃馬賽克呈現高雄市地圖及多種繽紛圖案。綠意盎然的園區白天如同糖果屋般繽紛可愛，夜晚的華麗燈光又展現不同的華麗情調，為剛硬的工業場所換上了柔美的藝術新風格。</t>
+  </si>
+  <si>
+    <t>大東濕地公園</t>
+  </si>
+  <si>
+    <t>830高雄市鳳山區博愛路539巷41-1號</t>
+  </si>
+  <si>
+    <t>大東濕地公園（原名中正公園）創建於1981年，位於大東文化藝術中心對面，經過多年綠美化，園內林木蒼鬱，內有設施包括老人活動中心、休息涼亭、相臨的國父紀念館(已於101年10月左右拆除)、慈恩圖書館等，是休閒好地方。</t>
+  </si>
+  <si>
+    <t>國家體育場（世運主場館）</t>
+  </si>
+  <si>
+    <t>813高雄市左營區世運大道100號</t>
+  </si>
+  <si>
+    <t>國家體育場於98年元月21日竣工，係2009年世界運動會開、閉幕典禮之主要場館與競賽場地，為乙座可容納4萬名觀眾（並尚可再擴增1萬5千個座位）之田徑場兼足球場，也是臺灣第一座符合國際田徑總會「IAAF」要求的標準球場，除具備舉辦國際運動賽事之設施外，另有露天表演廣場、附屬商業空間、生態綠網、公共藝術空間等。</t>
+  </si>
+  <si>
+    <t>旗津貝殼館</t>
+  </si>
+  <si>
+    <t>805高雄市旗津區旗津三路887號</t>
+  </si>
+  <si>
+    <t>旗津貝殼館為國內規模最大的公立貝殼展示館，展示約有2000多種貝類的標本，館藏由黃葛亮先生及沈淑惠小姐提供。鎮館之寶是巨大的「二枚貝」，其他珍奇貝類如鸚鵡螺、黑星寶螺、龍宮貝等，也是美不勝收的珍藏。</t>
+  </si>
+  <si>
+    <t>打狗英國領事館文化園區</t>
+  </si>
+  <si>
+    <t>804高雄市鼓山區蓮海路20號</t>
+  </si>
+  <si>
+    <t>打狗英國領事館文化園區包含山上領事館官邸、山下領事館辦公室與登山古道等3處，是英國政府在臺興建的第一座領事館，也是臺灣唯一完整完整保存官邸及辦公室之領事館園區，於2019年經文化部公告升格為國定古蹟。</t>
+  </si>
+  <si>
+    <t>旗後砲台</t>
+  </si>
+  <si>
+    <t>805高雄市旗津區旗後山步道</t>
+  </si>
+  <si>
+    <t>位於旗津最北端的旗後山上，此地扼守高雄港出海口，地理位置險要，自古以來就屬於軍事要地，清領初期即有駐軍並設立礮臺，1874年牧丹社事件過後，在加強海防的政策推動下，清政府在旗後(中位)、哨船頭(低位)、柴山(高位)等三處建立新式礮臺，以三個高低層次不同的礮位全方面守護高雄港的安全。</t>
+  </si>
+  <si>
+    <t>高雄燈塔</t>
+  </si>
+  <si>
+    <t>80541高雄市旗津區旗下巷34號</t>
+  </si>
+  <si>
+    <t>於1883年由英國技師所建，與砲台共構在臺灣十分少見，百年歷史見證高雄港篳路藍縷的開發過程；內政部在1987年將其核定為市定古蹟，並於1992年起開放給民眾參觀。為國內唯一的白色八角形磚造燈塔，塔身為八角形，至頂部轉為圓筒狀，有陽臺可供遠眺。</t>
+  </si>
+  <si>
+    <t>旗津風車公園</t>
+  </si>
+  <si>
+    <t>805高雄市旗津區旗津二路</t>
+  </si>
+  <si>
+    <t>旗津風車公園銜接旗津漁港的觀光步道，扮演過港隧道進入旗津門面的第一個海岸印象景點，旗津擁有豐沛的風力資源，七座造型獨特的三葉式風車面對遼闊的海面不停轉動，園區內有觀海看台及表演廣場，造型獨特又可愛的海洋生物拼貼創作，既生動又有趣，堪稱旗津最療癒的景點。</t>
+  </si>
+  <si>
+    <t>駁二藝術特區</t>
+  </si>
+  <si>
+    <t>803高雄市鹽埕區大勇路1號</t>
+  </si>
+  <si>
+    <t>駁二藝術特區的前身為高雄港的倉庫群，最早可追溯至日治時期，當時主要用於存放魚粉、砂糖及各類進出口貨物。隨著產業變遷，1970年代國際糖價下跌，臺灣製糖業逐漸衰退、倉庫使用率下降，最終遭到閒置。而在港區貨運功能轉移後，周邊商業活動也逐漸沒落，這片倉庫群從昔日繁華的貿易樞紐，轉變為一座被遺忘的港區空間。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +404,14 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,9 +433,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -523,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -531,19 +730,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -551,68 +752,413 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>22.651789396246599</v>
+      </c>
+      <c r="D2">
+        <v>120.32855361573699</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>22.650155697570199</v>
+      </c>
+      <c r="D3">
+        <v>120.327673853862</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>22.651789396246599</v>
-      </c>
-      <c r="E2">
-        <v>120.32855361573699</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>22.649690315923799</v>
+      </c>
+      <c r="D4">
+        <v>120.328918404037</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>22.650155697570199</v>
-      </c>
-      <c r="E3">
-        <v>120.327673853862</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>22.649690315923799</v>
-      </c>
-      <c r="E4">
-        <v>120.328918404037</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:5" ht="195">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22.602514470614501</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120.27345415391299</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="255">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22.634735524020201</v>
+      </c>
+      <c r="D6" s="2">
+        <v>120.275138909739</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="225">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>22.8933958029988</v>
+      </c>
+      <c r="D7" s="2">
+        <v>120.514019891792</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="195">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23.107570065834501</v>
+      </c>
+      <c r="D8" s="2">
+        <v>120.70355412265801</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="255">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22.836024473756499</v>
+      </c>
+      <c r="D9" s="2">
+        <v>120.211567311588</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="285">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.867864892661299</v>
+      </c>
+      <c r="D10" s="2">
+        <v>120.19607400827699</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="165">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.614167736002599</v>
+      </c>
+      <c r="D11" s="2">
+        <v>120.301970552973</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="300">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22.608181015659799</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120.298385540418</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="345">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22.627966347663801</v>
+      </c>
+      <c r="D13" s="2">
+        <v>120.3594118944</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="240">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22.6260055509143</v>
+      </c>
+      <c r="D14" s="2">
+        <v>120.31808032507899</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="180">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22.656993805699901</v>
+      </c>
+      <c r="D15" s="2">
+        <v>120.286551096244</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="285">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.668972797500899</v>
+      </c>
+      <c r="D16" s="2">
+        <v>120.30273155879701</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="345">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22.627377989646099</v>
+      </c>
+      <c r="D17" s="2">
+        <v>120.31494821874</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="180">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22.628414723412799</v>
+      </c>
+      <c r="D18" s="2">
+        <v>120.364690196244</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="255">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22.703252442264802</v>
+      </c>
+      <c r="D19" s="2">
+        <v>120.29449748624199</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="165">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22.601471140411402</v>
+      </c>
+      <c r="D20" s="2">
+        <v>120.27426995391301</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="165">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22.619119958352002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>120.266925298381</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="225">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22.613314196132201</v>
+      </c>
+      <c r="D22" s="2">
+        <v>120.264202455757</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="195">
+      <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.615750240952799</v>
+      </c>
+      <c r="D23" s="2">
+        <v>120.265144998088</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="210">
+      <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2">
+        <v>22.588500789780898</v>
+      </c>
+      <c r="D24" s="2">
+        <v>120.284412898087</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="255">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22.6201065699811</v>
+      </c>
+      <c r="D25" s="2">
+        <v>120.28148041998099</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
